--- a/datasets/la-liga-2015-2016.xlsx
+++ b/datasets/la-liga-2015-2016.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Eduardo/GitHub/PM-UC3M/datasets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -108,37 +116,37 @@
     <t>Levante</t>
   </si>
   <si>
-    <t>Goals,scored</t>
-  </si>
-  <si>
-    <t>Goals,conceded</t>
-  </si>
-  <si>
-    <t>Difference,goals</t>
-  </si>
-  <si>
-    <t>Percentage,scored,goals</t>
-  </si>
-  <si>
-    <t>Percentage,conceded,goals</t>
-  </si>
-  <si>
-    <t>Shots,on,goal</t>
-  </si>
-  <si>
-    <t>Penalties,scored</t>
-  </si>
-  <si>
-    <t>Fouls,made</t>
-  </si>
-  <si>
-    <t>Matches,without,conceding</t>
-  </si>
-  <si>
-    <t>Yellow,cards</t>
-  </si>
-  <si>
-    <t>Red,cards</t>
+    <t>Goals.scored</t>
+  </si>
+  <si>
+    <t>Goals.conceded</t>
+  </si>
+  <si>
+    <t>Difference.goals</t>
+  </si>
+  <si>
+    <t>Percentage.scored.goals</t>
+  </si>
+  <si>
+    <t>Percentage.conceded.goals</t>
+  </si>
+  <si>
+    <t>Shots.on.goal</t>
+  </si>
+  <si>
+    <t>Penalties.scored</t>
+  </si>
+  <si>
+    <t>Fouls.made</t>
+  </si>
+  <si>
+    <t>Matches.without.conceding</t>
+  </si>
+  <si>
+    <t>Yellow.cards</t>
+  </si>
+  <si>
+    <t>Red.cards</t>
   </si>
 </sst>
 </file>
@@ -185,6 +193,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -513,12 +526,12 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -642,7 +655,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -704,7 +717,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -766,7 +779,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -828,7 +841,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -890,7 +903,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -952,7 +965,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1014,7 +1027,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1076,7 +1089,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1138,7 +1151,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1200,7 +1213,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1262,7 +1275,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1324,7 +1337,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1386,7 +1399,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1448,7 +1461,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1510,7 +1523,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1572,7 +1585,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -1634,7 +1647,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -1696,7 +1709,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -1758,7 +1771,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -1822,10 +1835,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>